--- a/biology/Zoologie/Epactionotus/Epactionotus.xlsx
+++ b/biology/Zoologie/Epactionotus/Epactionotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epactionotus est un genre de poissons d'eau douce de la famille des Loricariidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Epactionotus sont de petites tailles, ne dépassant pas les 4 cm à l'âge adulte.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont endémiques du Brésil, on les trouve dans une zone restreinte longeant la côte Atlantique au Sud du pays.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (2 juillet 2023)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (2 juillet 2023)
 Epactionotus advenus Delapieve et al., 2020
 Epactionotus bilineatus Reis &amp; Schaefer, 1998 - espèce type
 Epactionotus gracilis Reis &amp; Schaefer, 1998
@@ -608,7 +626,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Epactionotus signifie "Celui qui vit dans les côtes du Sud", du grec Epactio- "ἐπάκτιος" (epáktios) voulant dire "qui réside en bord de mer" et de -notus "νότος" (nótos) voulant dire "Sud" en référence à la répartition du genre.
 </t>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Roberto E. Reis &amp; Scott A. Schaefer, 1998, « New Cascudinhos from Southern Brazil: Systematics, Endemism, and Relationships (Siluriformes, Loricariidae, Hypoptopomatinae) », American Museum Novitates, n. 3254, p. 1-25 (lire en ligne).</t>
         </is>
